--- a/Data_file/วัตถุดิบ1-14.xlsx
+++ b/Data_file/วัตถุดิบ1-14.xlsx
@@ -327,9 +327,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="&quot; &quot;* #,##0.00&quot; &quot;;&quot;-&quot;* #,##0.00&quot; &quot;;&quot; &quot;* &quot;-&quot;??&quot; &quot;"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -430,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -462,10 +463,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -749,18 +752,19 @@
   <dimension ref="A1:J173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E173"/>
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="13" customWidth="1"/>
     <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16" style="13" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" thickBot="1">
@@ -788,7 +792,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -1012,8 +1016,8 @@
       <c r="H8" s="10">
         <v>1</v>
       </c>
-      <c r="I8" s="13">
-        <v>0</v>
+      <c r="I8" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J8" s="11">
         <v>13007</v>
@@ -2804,8 +2808,8 @@
       <c r="H64" s="10">
         <v>109</v>
       </c>
-      <c r="I64" s="13">
-        <v>0</v>
+      <c r="I64" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J64" s="11">
         <v>13063</v>
@@ -2868,8 +2872,8 @@
       <c r="H66" s="10">
         <v>3</v>
       </c>
-      <c r="I66" s="13">
-        <v>0</v>
+      <c r="I66" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J66" s="11">
         <v>13065</v>
@@ -2932,8 +2936,8 @@
       <c r="H68" s="10">
         <v>425</v>
       </c>
-      <c r="I68" s="13">
-        <v>0</v>
+      <c r="I68" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J68" s="11">
         <v>13067</v>
@@ -2964,8 +2968,8 @@
       <c r="H69" s="10">
         <v>4</v>
       </c>
-      <c r="I69" s="13">
-        <v>0</v>
+      <c r="I69" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J69" s="11">
         <v>13068</v>
@@ -3028,8 +3032,8 @@
       <c r="H71" s="10">
         <v>904</v>
       </c>
-      <c r="I71" s="13">
-        <v>0</v>
+      <c r="I71" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J71" s="11">
         <v>13070</v>
@@ -3060,8 +3064,8 @@
       <c r="H72" s="10">
         <v>1</v>
       </c>
-      <c r="I72" s="13">
-        <v>0</v>
+      <c r="I72" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J72" s="11">
         <v>13071</v>
@@ -3156,8 +3160,8 @@
       <c r="H75" s="10">
         <v>294</v>
       </c>
-      <c r="I75" s="13">
-        <v>0</v>
+      <c r="I75" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J75" s="11">
         <v>13074</v>
@@ -3188,8 +3192,8 @@
       <c r="H76" s="10">
         <v>5</v>
       </c>
-      <c r="I76" s="13">
-        <v>0</v>
+      <c r="I76" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J76" s="11">
         <v>13075</v>
@@ -3284,8 +3288,8 @@
       <c r="H79" s="10">
         <v>398</v>
       </c>
-      <c r="I79" s="13">
-        <v>0</v>
+      <c r="I79" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J79" s="11">
         <v>13078</v>
@@ -3540,8 +3544,8 @@
       <c r="H87" s="10">
         <v>1340</v>
       </c>
-      <c r="I87" s="13">
-        <v>0</v>
+      <c r="I87" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J87" s="11">
         <v>13086</v>
@@ -3636,8 +3640,8 @@
       <c r="H90" s="10">
         <v>134</v>
       </c>
-      <c r="I90" s="13">
-        <v>0</v>
+      <c r="I90" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J90" s="11">
         <v>13089</v>
@@ -3700,8 +3704,8 @@
       <c r="H92" s="10">
         <v>158</v>
       </c>
-      <c r="I92" s="13">
-        <v>0</v>
+      <c r="I92" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J92" s="11">
         <v>13091</v>
@@ -3732,8 +3736,8 @@
       <c r="H93" s="10">
         <v>6</v>
       </c>
-      <c r="I93" s="13">
-        <v>0</v>
+      <c r="I93" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J93" s="11">
         <v>13092</v>
@@ -3796,8 +3800,8 @@
       <c r="H95" s="10">
         <v>572</v>
       </c>
-      <c r="I95" s="13">
-        <v>0</v>
+      <c r="I95" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J95" s="11">
         <v>13094</v>
@@ -3860,8 +3864,8 @@
       <c r="H97" s="10">
         <v>555</v>
       </c>
-      <c r="I97" s="13">
-        <v>0</v>
+      <c r="I97" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J97" s="11">
         <v>13096</v>
@@ -3924,8 +3928,8 @@
       <c r="H99" s="10">
         <v>834</v>
       </c>
-      <c r="I99" s="13">
-        <v>0</v>
+      <c r="I99" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J99" s="11">
         <v>13098</v>
@@ -4052,8 +4056,8 @@
       <c r="H103" s="10">
         <v>839</v>
       </c>
-      <c r="I103" s="13">
-        <v>0</v>
+      <c r="I103" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J103" s="11">
         <v>13102</v>
@@ -4244,8 +4248,8 @@
       <c r="H109" s="10">
         <v>75</v>
       </c>
-      <c r="I109" s="13">
-        <v>0</v>
+      <c r="I109" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J109" s="11">
         <v>13108</v>
@@ -4276,8 +4280,8 @@
       <c r="H110" s="10">
         <v>6</v>
       </c>
-      <c r="I110" s="13">
-        <v>0</v>
+      <c r="I110" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J110" s="11">
         <v>13109</v>
@@ -4308,8 +4312,8 @@
       <c r="H111" s="10">
         <v>1</v>
       </c>
-      <c r="I111" s="13">
-        <v>0</v>
+      <c r="I111" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J111" s="11">
         <v>13110</v>
@@ -4372,8 +4376,8 @@
       <c r="H113" s="10">
         <v>255</v>
       </c>
-      <c r="I113" s="13">
-        <v>0</v>
+      <c r="I113" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J113" s="11">
         <v>13112</v>
@@ -4468,8 +4472,8 @@
       <c r="H116" s="10">
         <v>374</v>
       </c>
-      <c r="I116" s="13">
-        <v>0</v>
+      <c r="I116" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J116" s="11">
         <v>13115</v>
@@ -4500,8 +4504,8 @@
       <c r="H117" s="10">
         <v>1</v>
       </c>
-      <c r="I117" s="13">
-        <v>0</v>
+      <c r="I117" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J117" s="11">
         <v>13116</v>
@@ -4532,8 +4536,8 @@
       <c r="H118" s="10">
         <v>16</v>
       </c>
-      <c r="I118" s="13">
-        <v>0</v>
+      <c r="I118" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J118" s="11">
         <v>13117</v>
@@ -4692,8 +4696,8 @@
       <c r="H123" s="10">
         <v>438</v>
       </c>
-      <c r="I123" s="13">
-        <v>0</v>
+      <c r="I123" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J123" s="11">
         <v>13122</v>
@@ -4724,8 +4728,8 @@
       <c r="H124" s="10">
         <v>2</v>
       </c>
-      <c r="I124" s="13">
-        <v>0</v>
+      <c r="I124" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J124" s="11">
         <v>13123</v>
@@ -4820,8 +4824,8 @@
       <c r="H127" s="10">
         <v>1</v>
       </c>
-      <c r="I127" s="13">
-        <v>0</v>
+      <c r="I127" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J127" s="11">
         <v>13126</v>

--- a/Data_file/วัตถุดิบ1-14.xlsx
+++ b/Data_file/วัตถุดิบ1-14.xlsx
@@ -431,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -469,6 +469,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -749,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J173"/>
+  <dimension ref="A1:K174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I95" sqref="I95"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="K180" sqref="K180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -764,10 +765,11 @@
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" thickBot="1">
+    <row r="1" spans="1:11" ht="27" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -830,8 +832,12 @@
       <c r="J2" s="11">
         <v>13001</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K2" s="12">
+        <f>I2*H2</f>
+        <v>295.04300000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -862,8 +868,12 @@
       <c r="J3" s="11">
         <v>13002</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K3" s="12">
+        <f t="shared" ref="K3:K66" si="0">I3*H3</f>
+        <v>233.8107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -894,8 +904,12 @@
       <c r="J4" s="11">
         <v>13003</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K4" s="12">
+        <f t="shared" si="0"/>
+        <v>97.135999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -926,8 +940,12 @@
       <c r="J5" s="11">
         <v>13004</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K5" s="12">
+        <f t="shared" si="0"/>
+        <v>101.85380000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -958,8 +976,12 @@
       <c r="J6" s="11">
         <v>13005</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K6" s="12">
+        <f t="shared" si="0"/>
+        <v>142.53370000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1012,12 @@
       <c r="J7" s="11">
         <v>13006</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K7" s="12">
+        <f t="shared" si="0"/>
+        <v>13528.856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1022,8 +1048,12 @@
       <c r="J8" s="11">
         <v>13007</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K8" s="12">
+        <f t="shared" si="0"/>
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1054,8 +1084,12 @@
       <c r="J9" s="11">
         <v>13008</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K9" s="12">
+        <f t="shared" si="0"/>
+        <v>375.31599999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1086,8 +1120,12 @@
       <c r="J10" s="11">
         <v>13009</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K10" s="12">
+        <f t="shared" si="0"/>
+        <v>87.984300000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1118,8 +1156,12 @@
       <c r="J11" s="11">
         <v>13010</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K11" s="12">
+        <f t="shared" si="0"/>
+        <v>56348.160000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1192,12 @@
       <c r="J12" s="11">
         <v>13011</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K12" s="12">
+        <f t="shared" si="0"/>
+        <v>337.97640000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -1182,8 +1228,12 @@
       <c r="J13" s="11">
         <v>13012</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K13" s="12">
+        <f t="shared" si="0"/>
+        <v>65.951400000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -1214,8 +1264,12 @@
       <c r="J14" s="11">
         <v>13013</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K14" s="12">
+        <f t="shared" si="0"/>
+        <v>506.96460000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -1246,8 +1300,12 @@
       <c r="J15" s="11">
         <v>13014</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K15" s="12">
+        <f t="shared" si="0"/>
+        <v>450.5292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -1278,8 +1336,12 @@
       <c r="J16" s="11">
         <v>13015</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K16" s="12">
+        <f t="shared" si="0"/>
+        <v>9758.1930000000029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
@@ -1310,8 +1372,12 @@
       <c r="J17" s="11">
         <v>13016</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K17" s="12">
+        <f t="shared" si="0"/>
+        <v>75.088200000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
@@ -1342,8 +1408,12 @@
       <c r="J18" s="11">
         <v>13017</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K18" s="12">
+        <f t="shared" si="0"/>
+        <v>75.088200000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -1374,8 +1444,12 @@
       <c r="J19" s="11">
         <v>13018</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K19" s="12">
+        <f t="shared" si="0"/>
+        <v>489.35409999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1406,8 +1480,12 @@
       <c r="J20" s="11">
         <v>13019</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K20" s="12">
+        <f t="shared" si="0"/>
+        <v>189.6181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -1438,8 +1516,12 @@
       <c r="J21" s="11">
         <v>13020</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K21" s="12">
+        <f t="shared" si="0"/>
+        <v>45.526499999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -1470,8 +1552,12 @@
       <c r="J22" s="11">
         <v>13021</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K22" s="12">
+        <f t="shared" si="0"/>
+        <v>75.088200000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -1502,8 +1588,12 @@
       <c r="J23" s="11">
         <v>13022</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K23" s="12">
+        <f t="shared" si="0"/>
+        <v>13.859999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -1534,8 +1624,12 @@
       <c r="J24" s="11">
         <v>13023</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K24" s="12">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
@@ -1566,8 +1660,12 @@
       <c r="J25" s="11">
         <v>13024</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K25" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
@@ -1598,8 +1696,12 @@
       <c r="J26" s="11">
         <v>13025</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K26" s="12">
+        <f t="shared" si="0"/>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
@@ -1630,8 +1732,12 @@
       <c r="J27" s="11">
         <v>13026</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K27" s="12">
+        <f t="shared" si="0"/>
+        <v>467.77339999999975</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1662,8 +1768,12 @@
       <c r="J28" s="11">
         <v>13027</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K28" s="12">
+        <f t="shared" si="0"/>
+        <v>7328.4000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
@@ -1694,8 +1804,12 @@
       <c r="J29" s="11">
         <v>13028</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K29" s="12">
+        <f t="shared" si="0"/>
+        <v>103.26380000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
@@ -1726,8 +1840,12 @@
       <c r="J30" s="11">
         <v>13029</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K30" s="12">
+        <f t="shared" si="0"/>
+        <v>7266.5467999999692</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>10</v>
       </c>
@@ -1758,8 +1876,12 @@
       <c r="J31" s="11">
         <v>13030</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K31" s="12">
+        <f t="shared" si="0"/>
+        <v>32711.304699999902</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>10</v>
       </c>
@@ -1790,8 +1912,12 @@
       <c r="J32" s="11">
         <v>13031</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K32" s="12">
+        <f t="shared" si="0"/>
+        <v>1467.7017000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>10</v>
       </c>
@@ -1822,8 +1948,12 @@
       <c r="J33" s="11">
         <v>13032</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K33" s="12">
+        <f t="shared" si="0"/>
+        <v>1429.0833</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>10</v>
       </c>
@@ -1854,8 +1984,12 @@
       <c r="J34" s="11">
         <v>13033</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K34" s="12">
+        <f t="shared" si="0"/>
+        <v>632.50620000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>10</v>
       </c>
@@ -1886,8 +2020,12 @@
       <c r="J35" s="11">
         <v>13034</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K35" s="12">
+        <f t="shared" si="0"/>
+        <v>895.23540000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1918,8 +2056,12 @@
       <c r="J36" s="11">
         <v>13035</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K36" s="12">
+        <f t="shared" si="0"/>
+        <v>686.20929999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>10</v>
       </c>
@@ -1950,8 +2092,12 @@
       <c r="J37" s="11">
         <v>13036</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K37" s="12">
+        <f t="shared" si="0"/>
+        <v>433.28969999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -1982,8 +2128,12 @@
       <c r="J38" s="11">
         <v>13037</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K38" s="12">
+        <f t="shared" si="0"/>
+        <v>344.303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>10</v>
       </c>
@@ -2014,8 +2164,12 @@
       <c r="J39" s="11">
         <v>13038</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K39" s="12">
+        <f t="shared" si="0"/>
+        <v>8035.21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>10</v>
       </c>
@@ -2046,8 +2200,12 @@
       <c r="J40" s="11">
         <v>13039</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K40" s="12">
+        <f t="shared" si="0"/>
+        <v>162593.31999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>10</v>
       </c>
@@ -2078,8 +2236,12 @@
       <c r="J41" s="11">
         <v>13040</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K41" s="12">
+        <f t="shared" si="0"/>
+        <v>26552.074200000014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>10</v>
       </c>
@@ -2110,8 +2272,12 @@
       <c r="J42" s="11">
         <v>13041</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K42" s="12">
+        <f t="shared" si="0"/>
+        <v>84274.050000000148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>10</v>
       </c>
@@ -2142,8 +2308,12 @@
       <c r="J43" s="11">
         <v>13042</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K43" s="12">
+        <f t="shared" si="0"/>
+        <v>17461.064599999991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2174,8 +2344,12 @@
       <c r="J44" s="11">
         <v>13043</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K44" s="12">
+        <f t="shared" si="0"/>
+        <v>55870.365400000068</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>10</v>
       </c>
@@ -2206,8 +2380,12 @@
       <c r="J45" s="11">
         <v>13044</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K45" s="12">
+        <f t="shared" si="0"/>
+        <v>115670.42190000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>10</v>
       </c>
@@ -2238,8 +2416,12 @@
       <c r="J46" s="11">
         <v>13045</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K46" s="12">
+        <f t="shared" si="0"/>
+        <v>406.2056</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>10</v>
       </c>
@@ -2270,8 +2452,12 @@
       <c r="J47" s="11">
         <v>13046</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K47" s="12">
+        <f t="shared" si="0"/>
+        <v>185743.04200000016</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>10</v>
       </c>
@@ -2302,8 +2488,12 @@
       <c r="J48" s="11">
         <v>13047</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K48" s="12">
+        <f t="shared" si="0"/>
+        <v>750.4769</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>10</v>
       </c>
@@ -2334,8 +2524,12 @@
       <c r="J49" s="11">
         <v>13048</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K49" s="12">
+        <f t="shared" si="0"/>
+        <v>132803.78289999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>10</v>
       </c>
@@ -2366,8 +2560,12 @@
       <c r="J50" s="11">
         <v>13049</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K50" s="12">
+        <f t="shared" si="0"/>
+        <v>18560.451499999952</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>10</v>
       </c>
@@ -2398,8 +2596,12 @@
       <c r="J51" s="11">
         <v>13050</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K51" s="12">
+        <f t="shared" si="0"/>
+        <v>2507.5666999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2430,8 +2632,12 @@
       <c r="J52" s="11">
         <v>13051</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K52" s="12">
+        <f t="shared" si="0"/>
+        <v>1412.367</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A53" s="5" t="s">
         <v>10</v>
       </c>
@@ -2462,8 +2668,12 @@
       <c r="J53" s="11">
         <v>13052</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K53" s="12">
+        <f t="shared" si="0"/>
+        <v>192630.3515000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>10</v>
       </c>
@@ -2494,8 +2704,12 @@
       <c r="J54" s="11">
         <v>13053</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K54" s="12">
+        <f t="shared" si="0"/>
+        <v>25285.808000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>10</v>
       </c>
@@ -2526,8 +2740,12 @@
       <c r="J55" s="11">
         <v>13054</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K55" s="12">
+        <f t="shared" si="0"/>
+        <v>2528.5808000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>10</v>
       </c>
@@ -2558,8 +2776,12 @@
       <c r="J56" s="11">
         <v>13055</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K56" s="12">
+        <f t="shared" si="0"/>
+        <v>272821.66260000033</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A57" s="5" t="s">
         <v>10</v>
       </c>
@@ -2590,8 +2812,12 @@
       <c r="J57" s="11">
         <v>13056</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K57" s="12">
+        <f t="shared" si="0"/>
+        <v>3272.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>10</v>
       </c>
@@ -2622,8 +2848,12 @@
       <c r="J58" s="11">
         <v>13057</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K58" s="12">
+        <f t="shared" si="0"/>
+        <v>293726.19859999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A59" s="5" t="s">
         <v>10</v>
       </c>
@@ -2654,8 +2884,12 @@
       <c r="J59" s="11">
         <v>13058</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K59" s="12">
+        <f t="shared" si="0"/>
+        <v>2063.2093</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2686,8 +2920,12 @@
       <c r="J60" s="11">
         <v>13059</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K60" s="12">
+        <f t="shared" si="0"/>
+        <v>162469.31479999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A61" s="5" t="s">
         <v>10</v>
       </c>
@@ -2718,8 +2956,12 @@
       <c r="J61" s="11">
         <v>13060</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K61" s="12">
+        <f t="shared" si="0"/>
+        <v>2030.8664000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A62" s="5" t="s">
         <v>10</v>
       </c>
@@ -2750,8 +2992,12 @@
       <c r="J62" s="11">
         <v>13061</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K62" s="12">
+        <f t="shared" si="0"/>
+        <v>447.45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A63" s="5" t="s">
         <v>10</v>
       </c>
@@ -2782,8 +3028,12 @@
       <c r="J63" s="11">
         <v>13062</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K63" s="12">
+        <f t="shared" si="0"/>
+        <v>392.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A64" s="5" t="s">
         <v>10</v>
       </c>
@@ -2814,8 +3064,12 @@
       <c r="J64" s="11">
         <v>13063</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K64" s="12">
+        <f t="shared" si="0"/>
+        <v>1.09E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A65" s="5" t="s">
         <v>10</v>
       </c>
@@ -2846,8 +3100,12 @@
       <c r="J65" s="11">
         <v>13064</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K65" s="12">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A66" s="5" t="s">
         <v>10</v>
       </c>
@@ -2878,8 +3136,12 @@
       <c r="J66" s="11">
         <v>13065</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K66" s="12">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
@@ -2910,8 +3172,12 @@
       <c r="J67" s="11">
         <v>13066</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K67" s="12">
+        <f t="shared" ref="K67:K130" si="1">I67*H67</f>
+        <v>579.93469999999979</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A68" s="5" t="s">
         <v>10</v>
       </c>
@@ -2942,8 +3208,12 @@
       <c r="J68" s="11">
         <v>13067</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K68" s="12">
+        <f t="shared" si="1"/>
+        <v>4.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A69" s="5" t="s">
         <v>10</v>
       </c>
@@ -2974,8 +3244,12 @@
       <c r="J69" s="11">
         <v>13068</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K69" s="12">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A70" s="5" t="s">
         <v>10</v>
       </c>
@@ -3006,8 +3280,12 @@
       <c r="J70" s="11">
         <v>13069</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K70" s="12">
+        <f t="shared" si="1"/>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A71" s="5" t="s">
         <v>10</v>
       </c>
@@ -3038,8 +3316,12 @@
       <c r="J71" s="11">
         <v>13070</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K71" s="12">
+        <f t="shared" si="1"/>
+        <v>9.0400000000000008E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>10</v>
       </c>
@@ -3070,8 +3352,12 @@
       <c r="J72" s="11">
         <v>13071</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K72" s="12">
+        <f t="shared" si="1"/>
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A73" s="5" t="s">
         <v>10</v>
       </c>
@@ -3102,8 +3388,12 @@
       <c r="J73" s="11">
         <v>13072</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K73" s="12">
+        <f t="shared" si="1"/>
+        <v>79.28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A74" s="5" t="s">
         <v>10</v>
       </c>
@@ -3134,8 +3424,12 @@
       <c r="J74" s="11">
         <v>13073</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K74" s="12">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A75" s="5" t="s">
         <v>10</v>
       </c>
@@ -3166,8 +3460,12 @@
       <c r="J75" s="11">
         <v>13074</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K75" s="12">
+        <f t="shared" si="1"/>
+        <v>2.9400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -3198,8 +3496,12 @@
       <c r="J76" s="11">
         <v>13075</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K76" s="12">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A77" s="5" t="s">
         <v>10</v>
       </c>
@@ -3230,8 +3532,12 @@
       <c r="J77" s="11">
         <v>13076</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K77" s="12">
+        <f t="shared" si="1"/>
+        <v>53.06</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A78" s="5" t="s">
         <v>10</v>
       </c>
@@ -3262,8 +3568,12 @@
       <c r="J78" s="11">
         <v>13077</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K78" s="12">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A79" s="5" t="s">
         <v>10</v>
       </c>
@@ -3294,8 +3604,12 @@
       <c r="J79" s="11">
         <v>13078</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K79" s="12">
+        <f t="shared" si="1"/>
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A80" s="5" t="s">
         <v>10</v>
       </c>
@@ -3326,8 +3640,12 @@
       <c r="J80" s="11">
         <v>13079</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K80" s="12">
+        <f t="shared" si="1"/>
+        <v>927</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A81" s="5" t="s">
         <v>10</v>
       </c>
@@ -3358,8 +3676,12 @@
       <c r="J81" s="11">
         <v>13080</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K81" s="12">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A82" s="5" t="s">
         <v>10</v>
       </c>
@@ -3390,8 +3712,12 @@
       <c r="J82" s="11">
         <v>13081</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K82" s="12">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A83" s="5" t="s">
         <v>10</v>
       </c>
@@ -3422,8 +3748,12 @@
       <c r="J83" s="11">
         <v>13082</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K83" s="12">
+        <f t="shared" si="1"/>
+        <v>7.3746</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3454,8 +3784,12 @@
       <c r="J84" s="11">
         <v>13083</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K84" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A85" s="5" t="s">
         <v>10</v>
       </c>
@@ -3486,8 +3820,12 @@
       <c r="J85" s="11">
         <v>13084</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K85" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A86" s="5" t="s">
         <v>10</v>
       </c>
@@ -3518,8 +3856,12 @@
       <c r="J86" s="11">
         <v>13085</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K86" s="12">
+        <f t="shared" si="1"/>
+        <v>2569.6840000000016</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A87" s="5" t="s">
         <v>10</v>
       </c>
@@ -3550,8 +3892,12 @@
       <c r="J87" s="11">
         <v>13086</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K87" s="12">
+        <f t="shared" si="1"/>
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A88" s="5" t="s">
         <v>10</v>
       </c>
@@ -3582,8 +3928,12 @@
       <c r="J88" s="11">
         <v>13087</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K88" s="12">
+        <f t="shared" si="1"/>
+        <v>136.44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A89" s="5" t="s">
         <v>10</v>
       </c>
@@ -3614,8 +3964,12 @@
       <c r="J89" s="11">
         <v>13088</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K89" s="12">
+        <f t="shared" si="1"/>
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A90" s="5" t="s">
         <v>10</v>
       </c>
@@ -3646,8 +4000,12 @@
       <c r="J90" s="11">
         <v>13089</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K90" s="12">
+        <f t="shared" si="1"/>
+        <v>1.34E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A91" s="5" t="s">
         <v>10</v>
       </c>
@@ -3678,8 +4036,12 @@
       <c r="J91" s="11">
         <v>13090</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K91" s="12">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3710,8 +4072,12 @@
       <c r="J92" s="11">
         <v>13091</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K92" s="12">
+        <f t="shared" si="1"/>
+        <v>1.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A93" s="5" t="s">
         <v>10</v>
       </c>
@@ -3742,8 +4108,12 @@
       <c r="J93" s="11">
         <v>13092</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K93" s="12">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000006E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A94" s="5" t="s">
         <v>10</v>
       </c>
@@ -3774,8 +4144,12 @@
       <c r="J94" s="11">
         <v>13093</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K94" s="12">
+        <f t="shared" si="1"/>
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A95" s="5" t="s">
         <v>10</v>
       </c>
@@ -3806,8 +4180,12 @@
       <c r="J95" s="11">
         <v>13094</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K95" s="12">
+        <f t="shared" si="1"/>
+        <v>5.7200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A96" s="5" t="s">
         <v>10</v>
       </c>
@@ -3838,8 +4216,12 @@
       <c r="J96" s="11">
         <v>13095</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K96" s="12">
+        <f t="shared" si="1"/>
+        <v>2743.96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A97" s="5" t="s">
         <v>10</v>
       </c>
@@ -3870,8 +4252,12 @@
       <c r="J97" s="11">
         <v>13096</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K97" s="12">
+        <f t="shared" si="1"/>
+        <v>5.5500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A98" s="5" t="s">
         <v>10</v>
       </c>
@@ -3902,8 +4288,12 @@
       <c r="J98" s="11">
         <v>13097</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K98" s="12">
+        <f t="shared" si="1"/>
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A99" s="5" t="s">
         <v>10</v>
       </c>
@@ -3934,8 +4324,12 @@
       <c r="J99" s="11">
         <v>13098</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K99" s="12">
+        <f t="shared" si="1"/>
+        <v>8.3400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3966,8 +4360,12 @@
       <c r="J100" s="11">
         <v>13099</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K100" s="12">
+        <f t="shared" si="1"/>
+        <v>2213.6999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A101" s="5" t="s">
         <v>10</v>
       </c>
@@ -3998,8 +4396,12 @@
       <c r="J101" s="11">
         <v>13100</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K101" s="12">
+        <f t="shared" si="1"/>
+        <v>10.362</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A102" s="5" t="s">
         <v>10</v>
       </c>
@@ -4030,8 +4432,12 @@
       <c r="J102" s="11">
         <v>13101</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K102" s="12">
+        <f t="shared" si="1"/>
+        <v>565.19999999999993</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A103" s="5" t="s">
         <v>10</v>
       </c>
@@ -4062,8 +4468,12 @@
       <c r="J103" s="11">
         <v>13102</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K103" s="12">
+        <f t="shared" si="1"/>
+        <v>8.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A104" s="5" t="s">
         <v>10</v>
       </c>
@@ -4094,8 +4504,12 @@
       <c r="J104" s="11">
         <v>13103</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K104" s="12">
+        <f t="shared" si="1"/>
+        <v>1075.45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A105" s="5" t="s">
         <v>10</v>
       </c>
@@ -4126,8 +4540,12 @@
       <c r="J105" s="11">
         <v>13104</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K105" s="12">
+        <f t="shared" si="1"/>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A106" s="5" t="s">
         <v>10</v>
       </c>
@@ -4158,8 +4576,12 @@
       <c r="J106" s="11">
         <v>13105</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K106" s="12">
+        <f t="shared" si="1"/>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A107" s="5" t="s">
         <v>10</v>
       </c>
@@ -4190,8 +4612,12 @@
       <c r="J107" s="11">
         <v>13106</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K107" s="12">
+        <f t="shared" si="1"/>
+        <v>23.549999999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -4222,8 +4648,12 @@
       <c r="J108" s="11">
         <v>13107</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K108" s="12">
+        <f t="shared" si="1"/>
+        <v>251.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A109" s="5" t="s">
         <v>10</v>
       </c>
@@ -4254,8 +4684,12 @@
       <c r="J109" s="11">
         <v>13108</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K109" s="12">
+        <f t="shared" si="1"/>
+        <v>7.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A110" s="5" t="s">
         <v>10</v>
       </c>
@@ -4286,8 +4720,12 @@
       <c r="J110" s="11">
         <v>13109</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K110" s="12">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000006E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A111" s="5" t="s">
         <v>10</v>
       </c>
@@ -4318,8 +4756,12 @@
       <c r="J111" s="11">
         <v>13110</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K111" s="12">
+        <f t="shared" si="1"/>
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A112" s="5" t="s">
         <v>10</v>
       </c>
@@ -4350,8 +4792,12 @@
       <c r="J112" s="11">
         <v>13111</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K112" s="12">
+        <f t="shared" si="1"/>
+        <v>98.54</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A113" s="5" t="s">
         <v>10</v>
       </c>
@@ -4382,8 +4828,12 @@
       <c r="J113" s="11">
         <v>13112</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K113" s="12">
+        <f t="shared" si="1"/>
+        <v>2.5500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A114" s="5" t="s">
         <v>10</v>
       </c>
@@ -4414,8 +4864,12 @@
       <c r="J114" s="11">
         <v>13113</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K114" s="12">
+        <f t="shared" si="1"/>
+        <v>174.34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A115" s="5" t="s">
         <v>10</v>
       </c>
@@ -4446,8 +4900,12 @@
       <c r="J115" s="11">
         <v>13114</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K115" s="12">
+        <f t="shared" si="1"/>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -4478,8 +4936,12 @@
       <c r="J116" s="11">
         <v>13115</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K116" s="12">
+        <f t="shared" si="1"/>
+        <v>3.7400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A117" s="5" t="s">
         <v>10</v>
       </c>
@@ -4510,8 +4972,12 @@
       <c r="J117" s="11">
         <v>13116</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K117" s="12">
+        <f t="shared" si="1"/>
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A118" s="5" t="s">
         <v>10</v>
       </c>
@@ -4542,8 +5008,12 @@
       <c r="J118" s="11">
         <v>13117</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K118" s="12">
+        <f t="shared" si="1"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A119" s="5" t="s">
         <v>10</v>
       </c>
@@ -4574,8 +5044,12 @@
       <c r="J119" s="11">
         <v>13118</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K119" s="12">
+        <f t="shared" si="1"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A120" s="5" t="s">
         <v>10</v>
       </c>
@@ -4606,8 +5080,12 @@
       <c r="J120" s="11">
         <v>13119</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K120" s="12">
+        <f t="shared" si="1"/>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A121" s="5" t="s">
         <v>10</v>
       </c>
@@ -4638,8 +5116,12 @@
       <c r="J121" s="11">
         <v>13120</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K121" s="12">
+        <f t="shared" si="1"/>
+        <v>23.94710000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A122" s="5" t="s">
         <v>10</v>
       </c>
@@ -4670,8 +5152,12 @@
       <c r="J122" s="11">
         <v>13121</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K122" s="12">
+        <f t="shared" si="1"/>
+        <v>1845.6560000000011</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A123" s="5" t="s">
         <v>10</v>
       </c>
@@ -4702,8 +5188,12 @@
       <c r="J123" s="11">
         <v>13122</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K123" s="12">
+        <f t="shared" si="1"/>
+        <v>4.3799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4734,8 +5224,12 @@
       <c r="J124" s="11">
         <v>13123</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K124" s="12">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A125" s="5" t="s">
         <v>10</v>
       </c>
@@ -4766,8 +5260,12 @@
       <c r="J125" s="11">
         <v>13124</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K125" s="12">
+        <f t="shared" si="1"/>
+        <v>12.2128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A126" s="5" t="s">
         <v>10</v>
       </c>
@@ -4798,8 +5296,12 @@
       <c r="J126" s="11">
         <v>13125</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K126" s="12">
+        <f t="shared" si="1"/>
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A127" s="5" t="s">
         <v>10</v>
       </c>
@@ -4830,8 +5332,12 @@
       <c r="J127" s="11">
         <v>13126</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K127" s="12">
+        <f t="shared" si="1"/>
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A128" s="5" t="s">
         <v>10</v>
       </c>
@@ -4862,8 +5368,12 @@
       <c r="J128" s="11">
         <v>13127</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K128" s="12">
+        <f t="shared" si="1"/>
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A129" s="5" t="s">
         <v>10</v>
       </c>
@@ -4894,8 +5404,12 @@
       <c r="J129" s="11">
         <v>13128</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K129" s="12">
+        <f t="shared" si="1"/>
+        <v>9.4179999999999993</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A130" s="5" t="s">
         <v>10</v>
       </c>
@@ -4926,8 +5440,12 @@
       <c r="J130" s="11">
         <v>13129</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K130" s="12">
+        <f t="shared" si="1"/>
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A131" s="5" t="s">
         <v>10</v>
       </c>
@@ -4958,8 +5476,12 @@
       <c r="J131" s="11">
         <v>13130</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K131" s="12">
+        <f t="shared" ref="K131:K173" si="2">I131*H131</f>
+        <v>148.71840000000006</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -4990,8 +5512,12 @@
       <c r="J132" s="11">
         <v>13131</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K132" s="12">
+        <f t="shared" si="2"/>
+        <v>227.64999999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A133" s="5" t="s">
         <v>10</v>
       </c>
@@ -5022,8 +5548,12 @@
       <c r="J133" s="11">
         <v>13132</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K133" s="12">
+        <f t="shared" si="2"/>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A134" s="5" t="s">
         <v>10</v>
       </c>
@@ -5054,8 +5584,12 @@
       <c r="J134" s="11">
         <v>13133</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K134" s="12">
+        <f t="shared" si="2"/>
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A135" s="5" t="s">
         <v>10</v>
       </c>
@@ -5086,8 +5620,12 @@
       <c r="J135" s="11">
         <v>13134</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K135" s="12">
+        <f t="shared" si="2"/>
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A136" s="5" t="s">
         <v>10</v>
       </c>
@@ -5118,8 +5656,12 @@
       <c r="J136" s="11">
         <v>13135</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K136" s="12">
+        <f t="shared" si="2"/>
+        <v>604.44999999999993</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A137" s="5" t="s">
         <v>10</v>
       </c>
@@ -5150,8 +5692,12 @@
       <c r="J137" s="11">
         <v>13136</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K137" s="12">
+        <f t="shared" si="2"/>
+        <v>3218.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A138" s="5" t="s">
         <v>10</v>
       </c>
@@ -5182,8 +5728,12 @@
       <c r="J138" s="11">
         <v>13137</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K138" s="12">
+        <f t="shared" si="2"/>
+        <v>368.95</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A139" s="5" t="s">
         <v>10</v>
       </c>
@@ -5214,8 +5764,12 @@
       <c r="J139" s="11">
         <v>13138</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K139" s="12">
+        <f t="shared" si="2"/>
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A140" s="5" t="s">
         <v>10</v>
       </c>
@@ -5246,8 +5800,12 @@
       <c r="J140" s="11">
         <v>13139</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K140" s="12">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A141" s="5" t="s">
         <v>10</v>
       </c>
@@ -5278,8 +5836,12 @@
       <c r="J141" s="11">
         <v>13140</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K141" s="12">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A142" s="5" t="s">
         <v>10</v>
       </c>
@@ -5310,8 +5872,12 @@
       <c r="J142" s="11">
         <v>13141</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K142" s="12">
+        <f t="shared" si="2"/>
+        <v>3.1168999999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A143" s="5" t="s">
         <v>10</v>
       </c>
@@ -5342,8 +5908,12 @@
       <c r="J143" s="11">
         <v>13142</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K143" s="12">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A144" s="5" t="s">
         <v>10</v>
       </c>
@@ -5374,8 +5944,12 @@
       <c r="J144" s="11">
         <v>13143</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K144" s="12">
+        <f t="shared" si="2"/>
+        <v>763.56719999999962</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A145" s="5" t="s">
         <v>10</v>
       </c>
@@ -5406,8 +5980,12 @@
       <c r="J145" s="11">
         <v>13144</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K145" s="12">
+        <f t="shared" si="2"/>
+        <v>392.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A146" s="5" t="s">
         <v>10</v>
       </c>
@@ -5438,8 +6016,12 @@
       <c r="J146" s="11">
         <v>13145</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K146" s="12">
+        <f t="shared" si="2"/>
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A147" s="5" t="s">
         <v>10</v>
       </c>
@@ -5470,8 +6052,12 @@
       <c r="J147" s="11">
         <v>13146</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K147" s="12">
+        <f t="shared" si="2"/>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A148" s="5" t="s">
         <v>10</v>
       </c>
@@ -5502,8 +6088,12 @@
       <c r="J148" s="11">
         <v>13147</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K148" s="12">
+        <f t="shared" si="2"/>
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A149" s="5" t="s">
         <v>10</v>
       </c>
@@ -5534,8 +6124,12 @@
       <c r="J149" s="11">
         <v>13148</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K149" s="12">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A150" s="5" t="s">
         <v>10</v>
       </c>
@@ -5566,8 +6160,12 @@
       <c r="J150" s="11">
         <v>13149</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K150" s="12">
+        <f t="shared" si="2"/>
+        <v>13230</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A151" s="5" t="s">
         <v>10</v>
       </c>
@@ -5598,8 +6196,12 @@
       <c r="J151" s="11">
         <v>13150</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K151" s="12">
+        <f t="shared" si="2"/>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A152" s="5" t="s">
         <v>10</v>
       </c>
@@ -5630,8 +6232,12 @@
       <c r="J152" s="11">
         <v>13151</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K152" s="12">
+        <f t="shared" si="2"/>
+        <v>12152.536600000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A153" s="5" t="s">
         <v>10</v>
       </c>
@@ -5662,8 +6268,12 @@
       <c r="J153" s="11">
         <v>13152</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K153" s="12">
+        <f t="shared" si="2"/>
+        <v>21695.067000000003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A154" s="5" t="s">
         <v>10</v>
       </c>
@@ -5694,8 +6304,12 @@
       <c r="J154" s="11">
         <v>13153</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K154" s="12">
+        <f t="shared" si="2"/>
+        <v>22921.711899999984</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A155" s="5" t="s">
         <v>10</v>
       </c>
@@ -5726,8 +6340,12 @@
       <c r="J155" s="11">
         <v>13154</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K155" s="12">
+        <f t="shared" si="2"/>
+        <v>31964.8662</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -5758,8 +6376,12 @@
       <c r="J156" s="11">
         <v>13155</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K156" s="12">
+        <f t="shared" si="2"/>
+        <v>22861.689799999982</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A157" s="5" t="s">
         <v>10</v>
       </c>
@@ -5790,8 +6412,12 @@
       <c r="J157" s="11">
         <v>13156</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K157" s="12">
+        <f t="shared" si="2"/>
+        <v>11825.00000000004</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A158" s="5" t="s">
         <v>10</v>
       </c>
@@ -5822,8 +6448,12 @@
       <c r="J158" s="11">
         <v>13157</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K158" s="12">
+        <f t="shared" si="2"/>
+        <v>18749.8341</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A159" s="5" t="s">
         <v>10</v>
       </c>
@@ -5854,8 +6484,12 @@
       <c r="J159" s="11">
         <v>13158</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K159" s="12">
+        <f t="shared" si="2"/>
+        <v>893.25940000000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A160" s="5" t="s">
         <v>10</v>
       </c>
@@ -5886,8 +6520,12 @@
       <c r="J160" s="11">
         <v>13159</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K160" s="12">
+        <f t="shared" si="2"/>
+        <v>1107.6169</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A161" s="5" t="s">
         <v>10</v>
       </c>
@@ -5918,8 +6556,12 @@
       <c r="J161" s="11">
         <v>13160</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K161" s="12">
+        <f t="shared" si="2"/>
+        <v>630.15980000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A162" s="5" t="s">
         <v>10</v>
       </c>
@@ -5950,8 +6592,12 @@
       <c r="J162" s="11">
         <v>13161</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K162" s="12">
+        <f t="shared" si="2"/>
+        <v>1152.2155</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A163" s="5" t="s">
         <v>10</v>
       </c>
@@ -5982,8 +6628,12 @@
       <c r="J163" s="11">
         <v>13162</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K163" s="12">
+        <f t="shared" si="2"/>
+        <v>5242.5533999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -6014,8 +6664,12 @@
       <c r="J164" s="11">
         <v>13163</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K164" s="12">
+        <f t="shared" si="2"/>
+        <v>1827.75</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A165" s="5" t="s">
         <v>10</v>
       </c>
@@ -6046,8 +6700,12 @@
       <c r="J165" s="11">
         <v>13164</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K165" s="12">
+        <f t="shared" si="2"/>
+        <v>556.65000000000009</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A166" s="5" t="s">
         <v>10</v>
       </c>
@@ -6078,8 +6736,12 @@
       <c r="J166" s="11">
         <v>13165</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K166" s="12">
+        <f t="shared" si="2"/>
+        <v>3828.3332999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A167" s="5" t="s">
         <v>10</v>
       </c>
@@ -6110,8 +6772,12 @@
       <c r="J167" s="11">
         <v>13166</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K167" s="12">
+        <f t="shared" si="2"/>
+        <v>34804.632900000004</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A168" s="5" t="s">
         <v>10</v>
       </c>
@@ -6142,8 +6808,12 @@
       <c r="J168" s="11">
         <v>13167</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K168" s="12">
+        <f t="shared" si="2"/>
+        <v>50991.898200000003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A169" s="5" t="s">
         <v>10</v>
       </c>
@@ -6174,8 +6844,12 @@
       <c r="J169" s="11">
         <v>13168</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K169" s="12">
+        <f t="shared" si="2"/>
+        <v>140392.15330000021</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A170" s="5" t="s">
         <v>10</v>
       </c>
@@ -6206,8 +6880,12 @@
       <c r="J170" s="11">
         <v>13169</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K170" s="12">
+        <f t="shared" si="2"/>
+        <v>856.08860000000095</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A171" s="5" t="s">
         <v>10</v>
       </c>
@@ -6238,8 +6916,12 @@
       <c r="J171" s="11">
         <v>13170</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K171" s="12">
+        <f t="shared" si="2"/>
+        <v>23925.272999999976</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -6270,8 +6952,12 @@
       <c r="J172" s="11">
         <v>13171</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="K172" s="12">
+        <f t="shared" si="2"/>
+        <v>16396.798599999991</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" s="12" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A173" s="5" t="s">
         <v>10</v>
       </c>
@@ -6301,6 +6987,20 @@
       </c>
       <c r="J173" s="11">
         <v>13172</v>
+      </c>
+      <c r="K173" s="12">
+        <f t="shared" si="2"/>
+        <v>547.29909999999995</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="H174" s="17">
+        <f>SUM(H2:H173)</f>
+        <v>18793.396000000001</v>
+      </c>
+      <c r="K174" s="12">
+        <f>SUM(K2:K173)</f>
+        <v>2415491.7388000009</v>
       </c>
     </row>
   </sheetData>
